--- a/tables/together.xlsx
+++ b/tables/together.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.03885335166774</v>
+        <v>12.95349406646349</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.34984074268774</v>
+        <v>12.26259713345688</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.57464177895881</v>
+        <v>11.50675495573505</v>
       </c>
     </row>
     <row r="5">
@@ -491,11 +491,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>advogado(a):</t>
+          <t>trator</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.40735523266444</v>
+        <v>11.18773891769243</v>
       </c>
     </row>
     <row r="6">
@@ -504,11 +504,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>trator</t>
+          <t>carregadeira</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>11.26570173295823</v>
+        <v>10.87537999911859</v>
       </c>
     </row>
     <row r="7">
@@ -517,11 +517,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>carregadeira</t>
+          <t>requerido:</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.94704519294863</v>
+        <v>10.72778941308577</v>
       </c>
     </row>
     <row r="8">
@@ -530,11 +530,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>requerido:</t>
+          <t>automatico</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.79108054479662</v>
+        <v>10.3873584552748</v>
       </c>
     </row>
     <row r="9">
@@ -543,11 +543,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>automatico</t>
+          <t>alcool</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.46923316187168</v>
+        <v>10.34897721956032</v>
       </c>
     </row>
     <row r="10">
@@ -556,11 +556,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>alcool</t>
+          <t>disse:</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.41717359140595</v>
+        <v>10.2428442740587</v>
       </c>
     </row>
     <row r="11">
@@ -569,11 +569,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>disse:</t>
+          <t>carros-</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.31034126453911</v>
+        <v>10.23291307406858</v>
       </c>
     </row>
     <row r="12">
@@ -582,11 +582,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>carros-</t>
+          <t>intimo</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.29328456573549</v>
+        <v>10.22163611144453</v>
       </c>
     </row>
     <row r="13">
@@ -595,11 +595,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>intimo</t>
+          <t>blindagem</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.28194107200245</v>
+        <v>10.13854159064281</v>
       </c>
     </row>
     <row r="14">
@@ -608,11 +608,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>os(as)</t>
+          <t>escavadeira</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.27053257221986</v>
+        <v>9.958734662427739</v>
       </c>
     </row>
     <row r="15">
@@ -621,11 +621,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>advogados(as)</t>
+          <t>carregadeira-</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>10.27053257221986</v>
+        <v>9.942769905807822</v>
       </c>
     </row>
     <row r="16">
@@ -634,11 +634,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>drs(as)</t>
+          <t>lanterna</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>10.27053257221986</v>
+        <v>9.826985257556911</v>
       </c>
     </row>
     <row r="17">
@@ -647,11 +647,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>blindagem</t>
+          <t>polimento</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.2074617883346</v>
+        <v>9.60459424085362</v>
       </c>
     </row>
     <row r="18">
@@ -660,11 +660,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>escavadeira</t>
+          <t>jardim</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>10.02435946357884</v>
+        <v>9.516088594975937</v>
       </c>
     </row>
     <row r="19">
@@ -673,11 +673,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>carregadeira-</t>
+          <t>seda</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>10.00142962920913</v>
+        <v>9.458370884075897</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>lanterna</t>
+          <t>exequente:</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.901260957836429</v>
+        <v>9.441669505756289</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>polimento</t>
+          <t>placa</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.667885372564461</v>
+        <v>9.410034238366617</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>jardim</t>
+          <t>motoniveladora</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.60100241336834</v>
+        <v>9.390702699881018</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>seda</t>
+          <t>responder</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.514172780845408</v>
+        <v>9.369735923214604</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>exequente:</t>
+          <t>vila</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.497372868793056</v>
+        <v>9.351370070314854</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>placa</t>
+          <t>respostas</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.48720617684288</v>
+        <v>9.344706965442434</v>
       </c>
     </row>
     <row r="26">
@@ -764,11 +764,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>responder</t>
+          <t>higienização</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.449031434106541</v>
+        <v>9.258132722734683</v>
       </c>
     </row>
     <row r="27">
@@ -777,11 +777,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>motoniveladora</t>
+          <t>listas</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.446105372188377</v>
+        <v>9.236676860941266</v>
       </c>
     </row>
     <row r="28">
@@ -790,11 +790,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vila</t>
+          <t>vitrificação</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.43300029634162</v>
+        <v>9.191479409791228</v>
       </c>
     </row>
     <row r="29">
@@ -803,11 +803,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>respostas</t>
+          <t>colheitadeira</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.423790657771937</v>
+        <v>9.107367789961414</v>
       </c>
     </row>
     <row r="30">
@@ -816,11 +816,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>higienização</t>
+          <t>vara</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.322648894990669</v>
+        <v>9.068524398802282</v>
       </c>
     </row>
     <row r="31">
@@ -829,11 +829,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>listas</t>
+          <t>guindaste</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.295025201141691</v>
+        <v>9.053817752252209</v>
       </c>
     </row>
     <row r="32">
@@ -842,11 +842,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>vitrificação</t>
+          <t>despacho:</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9.252048250010228</v>
+        <v>8.97047484481428</v>
       </c>
     </row>
     <row r="33">
@@ -855,11 +855,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>colheitadeira</t>
+          <t>esteira</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>9.164899281226003</v>
+        <v>8.936396838806914</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>vara</t>
+          <t>intime-se</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>9.128283005751674</v>
+        <v>8.838485839783035</v>
       </c>
     </row>
     <row r="35">
@@ -881,11 +881,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>guindaste</t>
+          <t>comentar</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>9.107232892108032</v>
+        <v>8.835611359554219</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>despacho:</t>
+          <t>retro</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>9.023398283469723</v>
+        <v>8.817970874080647</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>esteira</t>
+          <t>gasolina</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.995284768391642</v>
+        <v>8.816693223681204</v>
       </c>
     </row>
     <row r="38">
@@ -920,11 +920,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gasolina</t>
+          <t>conserto</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.908099440367179</v>
+        <v>8.800408768043734</v>
       </c>
     </row>
     <row r="39">
@@ -933,11 +933,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>comentar</t>
+          <t>executado:</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.903180203664693</v>
+        <v>8.769036553095818</v>
       </c>
     </row>
     <row r="40">
@@ -946,11 +946,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>intime-se</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.890630578076253</v>
+        <v>8.717272088428858</v>
       </c>
     </row>
     <row r="41">
@@ -959,11 +959,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>retro</t>
+          <t>câmbio:</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.873674237117411</v>
+        <v>8.662428158949847</v>
       </c>
     </row>
     <row r="42">
@@ -972,11 +972,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>conserto</t>
+          <t>compactador</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.861735247692051</v>
+        <v>8.637097566780449</v>
       </c>
     </row>
     <row r="43">
@@ -985,11 +985,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>executado:</t>
+          <t>chassis</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.820771558891344</v>
+        <v>8.615077197495671</v>
       </c>
     </row>
     <row r="44">
@@ -998,11 +998,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>tomar</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.776530721467571</v>
+        <v>8.585420799056001</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>câmbio:</t>
+          <t>paladino</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.741241557310442</v>
+        <v>8.463956698193517</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>compactador</t>
+          <t>responderexcluir</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.691658348191115</v>
+        <v>8.440178881864378</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>chassis</t>
+          <t>miniaturas</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.675112176591117</v>
+        <v>8.399420069130464</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>tomar</t>
+          <t>flex</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.645249114738045</v>
+        <v>8.395190095892142</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>paladino</t>
+          <t>custas</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.513891813206756</v>
+        <v>8.291752344008424</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>responderexcluir</t>
+          <t>raspadorora</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.509870573989463</v>
+        <v>8.261536465702825</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>flex</t>
+          <t>excluir</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.482851221892302</v>
+        <v>8.252725422113505</v>
       </c>
     </row>
     <row r="52">
@@ -1102,11 +1102,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>miniaturas</t>
+          <t>caminhao</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.459178676079858</v>
+        <v>8.24630793497044</v>
       </c>
     </row>
     <row r="53">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>custas</t>
+          <t>art.</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.340671498692632</v>
+        <v>8.23326373744578</v>
       </c>
     </row>
     <row r="54">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>excluir</t>
+          <t>ciência</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.325099963169881</v>
+        <v>8.205013068102058</v>
       </c>
     </row>
     <row r="55">
@@ -1141,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>raspadorora</t>
+          <t>desconto</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.310277354664247</v>
+        <v>8.201538259347734</v>
       </c>
     </row>
     <row r="56">
@@ -1154,11 +1154,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>caminhao</t>
+          <t>cível</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.300648404599066</v>
+        <v>8.168018206360252</v>
       </c>
     </row>
     <row r="57">
@@ -1167,11 +1167,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>art.</t>
+          <t>joinville</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.285273489518385</v>
+        <v>8.131007735506769</v>
       </c>
     </row>
     <row r="58">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>desconto</t>
+          <t>valvula</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.265579724843555</v>
+        <v>8.098235539868231</v>
       </c>
     </row>
     <row r="59">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ciência</t>
+          <t>turbo</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.265384559768968</v>
+        <v>8.081282283075371</v>
       </c>
     </row>
     <row r="60">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>cível</t>
+          <t>dezembro</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.216207362225367</v>
+        <v>8.07339075816493</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>joinville</t>
+          <t>blindadora</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.195097549634974</v>
+        <v>8.069860821499198</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>valvula</t>
+          <t>limpeza</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.155851336033631</v>
+        <v>8.047651216697245</v>
       </c>
     </row>
     <row r="63">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>turbo</t>
+          <t>ignição</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.154258106734929</v>
+        <v>8.047651216697245</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>dezembro</t>
+          <t>blindagem,</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.145131363525383</v>
+        <v>8.036029201329006</v>
       </c>
     </row>
     <row r="65">
@@ -1271,11 +1271,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>blindadora</t>
+          <t>abril</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.117470874649445</v>
+        <v>8.007678742771109</v>
       </c>
     </row>
     <row r="66">
@@ -1284,11 +1284,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>limpeza</t>
+          <t>junho</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>8.10847810450252</v>
+        <v>7.998831389556338</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ignição</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.10847810450252</v>
+        <v>7.9843027856274</v>
       </c>
     </row>
     <row r="68">
@@ -1310,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>blindagem,</t>
+          <t>funilaria</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>8.083439656831899</v>
+        <v>7.973169816336151</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>abril</t>
+          <t>articulado</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>8.080264942397347</v>
+        <v>7.966579914641791</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>junho</t>
+          <t>this;</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.071062662827076</v>
+        <v>7.966579914641791</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>blindagem.</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.068393642763192</v>
+        <v>7.966579914641791</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>funilaria</t>
+          <t>financiamento</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.025710395182488</v>
+        <v>7.950206275003857</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>financiamento</t>
+          <t>rolo</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>8.019927791354704</v>
+        <v>7.935703067147327</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>articulado</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.01358063764699</v>
+        <v>7.928457499249511</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>this;</t>
+          <t>freio</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8.01358063764699</v>
+        <v>7.905303579413184</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>blindagem.</t>
+          <t>itapevi,</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.01358063764699</v>
+        <v>7.894604652390452</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>(dez)</t>
+          <t>osasco,</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.01358063764699</v>
+        <v>7.894604652390452</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>março</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>8.000855748289746</v>
+        <v>7.891997886306645</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>rolo</t>
+          <t>setembro</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.991003763452446</v>
+        <v>7.891496910372759</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>freio</t>
+          <t>recife,</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.974631309248747</v>
+        <v>7.857611022303629</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>setembro</t>
+          <t>automático</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.966609064201151</v>
+        <v>7.848726823203678</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>março</t>
+          <t>janeiro</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.96298826874963</v>
+        <v>7.84733650976804</v>
       </c>
     </row>
     <row r="83">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>itapevi,</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.941180740307503</v>
+        <v>7.833260869568072</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>osasco,</t>
+          <t>maio</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.941180740307503</v>
+        <v>7.831484036538924</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>automático</t>
+          <t>automatizado</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.931666476264535</v>
+        <v>7.82186177455173</v>
       </c>
     </row>
     <row r="86">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>curso</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.928271137456306</v>
+        <v>7.820732771304692</v>
       </c>
     </row>
     <row r="87">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>janeiro</t>
+          <t>fls.</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.924772943266955</v>
+        <v>7.819912709430001</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>recife,</t>
+          <t>telescopico</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.903968857547725</v>
+        <v>7.819912709430001</v>
       </c>
     </row>
     <row r="89">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>maio</t>
+          <t>blindado,</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.902204125013003</v>
+        <v>7.819912709430001</v>
       </c>
     </row>
     <row r="90">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>curso</t>
+          <t>couro</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.879844532242863</v>
+        <v>7.814852875083359</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>couro</t>
+          <t>fevereiro</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.878942689211565</v>
+        <v>7.808124514952175</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>automatizado</t>
+          <t>alugar</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.878514943757346</v>
+        <v>7.80370057003891</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fevereiro</t>
+          <t>fonte:</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.878081921710506</v>
+        <v>7.789859955103104</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>fls.</t>
+          <t>stralis</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.866048134558325</v>
+        <v>7.785330017878658</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>telescopico</t>
+          <t>curitiba,</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.866048134558325</v>
+        <v>7.781482344916504</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>blindado,</t>
+          <t>ontem</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.866048134558325</v>
+        <v>7.779229488364143</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>alugar</t>
+          <t>outubro</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.856748888794242</v>
+        <v>7.769332148686884</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>fonte:</t>
+          <t>julho</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.850686842908378</v>
+        <v>7.764020624540482</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>outubro</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.844886355739018</v>
+        <v>7.760570606285548</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ontem</t>
+          <t>amortecedor</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.84388438911986</v>
+        <v>7.750729534280669</v>
       </c>
     </row>
     <row r="101">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>stralis</t>
+          <t>profissional</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.838253456534098</v>
+        <v>7.748515876679292</v>
       </c>
     </row>
   </sheetData>

--- a/tables/together.xlsx
+++ b/tables/together.xlsx
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.95349406646349</v>
+        <v>13.14359974531064</v>
       </c>
     </row>
     <row r="3">
@@ -469,7 +469,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12.26259713345688</v>
+        <v>12.45689943482012</v>
       </c>
     </row>
     <row r="4">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.50675495573505</v>
+        <v>11.65794730209605</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +495,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>11.18773891769243</v>
+        <v>11.36137174375787</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10.87537999911859</v>
+        <v>11.03498724383921</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10.72778941308577</v>
+        <v>10.86874658640445</v>
       </c>
     </row>
     <row r="8">
@@ -534,7 +534,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.3873584552748</v>
+        <v>10.5697035468576</v>
       </c>
     </row>
     <row r="9">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.34897721956032</v>
+        <v>10.5008589689635</v>
       </c>
     </row>
     <row r="10">
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.2428442740587</v>
+        <v>10.39316841471561</v>
       </c>
     </row>
     <row r="11">
@@ -573,7 +573,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.23291307406858</v>
+        <v>10.367367848132</v>
       </c>
     </row>
     <row r="12">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>10.22163611144453</v>
+        <v>10.35594271250475</v>
       </c>
     </row>
     <row r="13">
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>10.13854159064281</v>
+        <v>10.29203538967271</v>
       </c>
     </row>
     <row r="14">
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.958734662427739</v>
+        <v>10.10488920603933</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9.942769905807822</v>
+        <v>10.07341236036338</v>
       </c>
     </row>
     <row r="16">
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9.826985257556911</v>
+        <v>9.992406422807969</v>
       </c>
     </row>
     <row r="17">
@@ -651,7 +651,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.60459424085362</v>
+        <v>9.745551414172292</v>
       </c>
     </row>
     <row r="18">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.516088594975937</v>
+        <v>9.705202164171885</v>
       </c>
     </row>
     <row r="19">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9.458370884075897</v>
+        <v>9.582648605485373</v>
       </c>
     </row>
     <row r="20">
@@ -686,11 +686,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>exequente:</t>
+          <t>placa</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.441669505756289</v>
+        <v>9.581905684066694</v>
       </c>
     </row>
     <row r="21">
@@ -699,11 +699,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>placa</t>
+          <t>exequente:</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9.410034238366617</v>
+        <v>9.565727780363838</v>
       </c>
     </row>
     <row r="22">
@@ -712,11 +712,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>motoniveladora</t>
+          <t>responder</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>9.390702699881018</v>
+        <v>9.54633682716514</v>
       </c>
     </row>
     <row r="23">
@@ -725,11 +725,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>responder</t>
+          <t>vila</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>9.369735923214604</v>
+        <v>9.533170673449369</v>
       </c>
     </row>
     <row r="24">
@@ -738,11 +738,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>vila</t>
+          <t>respostas</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9.351370070314854</v>
+        <v>9.520836123272938</v>
       </c>
     </row>
     <row r="25">
@@ -751,11 +751,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>respostas</t>
+          <t>motoniveladora</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9.344706965442434</v>
+        <v>9.514091299067784</v>
       </c>
     </row>
     <row r="26">
@@ -768,7 +768,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>9.258132722734683</v>
+        <v>9.401818212766559</v>
       </c>
     </row>
     <row r="27">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.236676860941266</v>
+        <v>9.366625826620437</v>
       </c>
     </row>
     <row r="28">
@@ -794,7 +794,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.191479409791228</v>
+        <v>9.326373703473102</v>
       </c>
     </row>
     <row r="29">
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>9.107367789961414</v>
+        <v>9.235497532095174</v>
       </c>
     </row>
     <row r="30">
@@ -820,7 +820,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>9.068524398802282</v>
+        <v>9.201614202845162</v>
       </c>
     </row>
     <row r="31">
@@ -833,7 +833,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.053817752252209</v>
+        <v>9.172779871003646</v>
       </c>
     </row>
     <row r="32">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.97047484481428</v>
+        <v>9.088341884216538</v>
       </c>
     </row>
     <row r="33">
@@ -859,7 +859,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>8.936396838806914</v>
+        <v>9.06754753674001</v>
       </c>
     </row>
     <row r="34">
@@ -868,11 +868,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>intime-se</t>
+          <t>gasolina</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>8.838485839783035</v>
+        <v>9.020266166359393</v>
       </c>
     </row>
     <row r="35">
@@ -885,7 +885,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>8.835611359554219</v>
+        <v>8.986095527126642</v>
       </c>
     </row>
     <row r="36">
@@ -894,11 +894,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>retro</t>
+          <t>intime-se</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>8.817970874080647</v>
+        <v>8.954618617228615</v>
       </c>
     </row>
     <row r="37">
@@ -907,11 +907,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>gasolina</t>
+          <t>retro</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>8.816693223681204</v>
+        <v>8.942029148688194</v>
       </c>
     </row>
     <row r="38">
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.800408768043734</v>
+        <v>8.9369904183815</v>
       </c>
     </row>
     <row r="39">
@@ -937,7 +937,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.769036553095818</v>
+        <v>8.884256805624711</v>
       </c>
     </row>
     <row r="40">
@@ -950,7 +950,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.717272088428858</v>
+        <v>8.849248388774182</v>
       </c>
     </row>
     <row r="41">
@@ -963,7 +963,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.662428158949847</v>
+        <v>8.837955338702347</v>
       </c>
     </row>
     <row r="42">
@@ -976,7 +976,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>8.637097566780449</v>
+        <v>8.758611170879707</v>
       </c>
     </row>
     <row r="43">
@@ -989,7 +989,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>8.615077197495671</v>
+        <v>8.748782516468346</v>
       </c>
     </row>
     <row r="44">
@@ -1002,7 +1002,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.585420799056001</v>
+        <v>8.718665853062728</v>
       </c>
     </row>
     <row r="45">
@@ -1011,11 +1011,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>paladino</t>
+          <t>responderexcluir</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>8.463956698193517</v>
+        <v>8.595390894356555</v>
       </c>
     </row>
     <row r="46">
@@ -1024,11 +1024,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>responderexcluir</t>
+          <t>flex</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.440178881864378</v>
+        <v>8.590422258707108</v>
       </c>
     </row>
     <row r="47">
@@ -1037,11 +1037,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>miniaturas</t>
+          <t>paladino</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>8.399420069130464</v>
+        <v>8.575168371477645</v>
       </c>
     </row>
     <row r="48">
@@ -1050,11 +1050,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>flex</t>
+          <t>miniaturas</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.395190095892142</v>
+        <v>8.532509873173346</v>
       </c>
     </row>
     <row r="49">
@@ -1063,11 +1063,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>custas</t>
+          <t>excluir</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>8.291752344008424</v>
+        <v>8.413912470784902</v>
       </c>
     </row>
     <row r="50">
@@ -1076,11 +1076,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>raspadorora</t>
+          <t>custas</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>8.261536465702825</v>
+        <v>8.400701348063654</v>
       </c>
     </row>
     <row r="51">
@@ -1089,11 +1089,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>excluir</t>
+          <t>raspadorora</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.252725422113505</v>
+        <v>8.370088449959166</v>
       </c>
     </row>
     <row r="52">
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.24630793497044</v>
+        <v>8.367330877499814</v>
       </c>
     </row>
     <row r="53">
@@ -1119,7 +1119,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.23326373744578</v>
+        <v>8.349095883893293</v>
       </c>
     </row>
     <row r="54">
@@ -1128,11 +1128,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ciência</t>
+          <t>desconto</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>8.205013068102058</v>
+        <v>8.344166518749356</v>
       </c>
     </row>
     <row r="55">
@@ -1141,11 +1141,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>desconto</t>
+          <t>ciência</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>8.201538259347734</v>
+        <v>8.33946784216548</v>
       </c>
     </row>
     <row r="56">
@@ -1158,7 +1158,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.168018206360252</v>
+        <v>8.275341412815033</v>
       </c>
     </row>
     <row r="57">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.131007735506769</v>
+        <v>8.273743673288768</v>
       </c>
     </row>
     <row r="58">
@@ -1180,11 +1180,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>valvula</t>
+          <t>turbo</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>8.098235539868231</v>
+        <v>8.243808462424617</v>
       </c>
     </row>
     <row r="59">
@@ -1193,11 +1193,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>turbo</t>
+          <t>dezembro</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.081282283075371</v>
+        <v>8.233165953684896</v>
       </c>
     </row>
     <row r="60">
@@ -1206,11 +1206,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>dezembro</t>
+          <t>valvula</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.07339075816493</v>
+        <v>8.226553039436476</v>
       </c>
     </row>
     <row r="61">
@@ -1219,11 +1219,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>blindadora</t>
+          <t>limpeza</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.069860821499198</v>
+        <v>8.18312021424931</v>
       </c>
     </row>
     <row r="62">
@@ -1232,11 +1232,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>limpeza</t>
+          <t>ignição</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.047651216697245</v>
+        <v>8.18312021424931</v>
       </c>
     </row>
     <row r="63">
@@ -1245,11 +1245,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ignição</t>
+          <t>blindadora</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.047651216697245</v>
+        <v>8.175894294628909</v>
       </c>
     </row>
     <row r="64">
@@ -1258,11 +1258,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>blindagem,</t>
+          <t>manual</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>8.036029201329006</v>
+        <v>8.17158351838407</v>
       </c>
     </row>
     <row r="65">
@@ -1275,7 +1275,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.007678742771109</v>
+        <v>8.169337181239301</v>
       </c>
     </row>
     <row r="66">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7.998831389556338</v>
+        <v>8.15969936316073</v>
       </c>
     </row>
     <row r="67">
@@ -1297,11 +1297,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>manual</t>
+          <t>blindagem,</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7.9843027856274</v>
+        <v>8.141618145827112</v>
       </c>
     </row>
     <row r="68">
@@ -1310,11 +1310,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>funilaria</t>
+          <t>financiamento</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7.973169816336151</v>
+        <v>8.105484709733181</v>
       </c>
     </row>
     <row r="69">
@@ -1323,11 +1323,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>articulado</t>
+          <t>funilaria</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.966579914641791</v>
+        <v>8.09018417962076</v>
       </c>
     </row>
     <row r="70">
@@ -1336,11 +1336,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>this;</t>
+          <t>agosto</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.966579914641791</v>
+        <v>8.089697348531343</v>
       </c>
     </row>
     <row r="71">
@@ -1349,11 +1349,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>blindagem.</t>
+          <t>articulado</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.966579914641791</v>
+        <v>8.071256334223207</v>
       </c>
     </row>
     <row r="72">
@@ -1362,11 +1362,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>financiamento</t>
+          <t>this;</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.950206275003857</v>
+        <v>8.071256334223207</v>
       </c>
     </row>
     <row r="73">
@@ -1375,11 +1375,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>rolo</t>
+          <t>blindagem.</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.935703067147327</v>
+        <v>8.071256334223207</v>
       </c>
     </row>
     <row r="74">
@@ -1388,11 +1388,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>agosto</t>
+          <t>freio</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.928457499249511</v>
+        <v>8.059705002899623</v>
       </c>
     </row>
     <row r="75">
@@ -1401,11 +1401,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>freio</t>
+          <t>rolo</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.905303579413184</v>
+        <v>8.058864553172526</v>
       </c>
     </row>
     <row r="76">
@@ -1414,11 +1414,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>itapevi,</t>
+          <t>setembro</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.894604652390452</v>
+        <v>8.058780961065654</v>
       </c>
     </row>
     <row r="77">
@@ -1427,11 +1427,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>osasco,</t>
+          <t>março</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.894604652390452</v>
+        <v>8.050102242659312</v>
       </c>
     </row>
     <row r="78">
@@ -1440,11 +1440,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>março</t>
+          <t>para</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.891997886306645</v>
+        <v>8.044860479746648</v>
       </c>
     </row>
     <row r="79">
@@ -1453,11 +1453,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>setembro</t>
+          <t>automático</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.891496910372759</v>
+        <v>8.033443682192738</v>
       </c>
     </row>
     <row r="80">
@@ -1466,11 +1466,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>recife,</t>
+          <t>janeiro</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.857611022303629</v>
+        <v>8.019797018576046</v>
       </c>
     </row>
     <row r="81">
@@ -1479,11 +1479,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>automático</t>
+          <t>itapevi,</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.848726823203678</v>
+        <v>7.998335357144222</v>
       </c>
     </row>
     <row r="82">
@@ -1492,11 +1492,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>janeiro</t>
+          <t>osasco,</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.84733650976804</v>
+        <v>7.998335357144222</v>
       </c>
     </row>
     <row r="83">
@@ -1505,11 +1505,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>para</t>
+          <t>maio</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.833260869568072</v>
+        <v>7.988986414813588</v>
       </c>
     </row>
     <row r="84">
@@ -1518,11 +1518,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>maio</t>
+          <t>fevereiro</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.831484036538924</v>
+        <v>7.963928306775818</v>
       </c>
     </row>
     <row r="85">
@@ -1531,11 +1531,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>automatizado</t>
+          <t>recife,</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.82186177455173</v>
+        <v>7.96085565137796</v>
       </c>
     </row>
     <row r="86">
@@ -1544,11 +1544,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>curso</t>
+          <t>couro</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.820732771304692</v>
+        <v>7.957588812865358</v>
       </c>
     </row>
     <row r="87">
@@ -1557,11 +1557,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>fls.</t>
+          <t>curso</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.819912709430001</v>
+        <v>7.952381969328216</v>
       </c>
     </row>
     <row r="88">
@@ -1570,11 +1570,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>telescopico</t>
+          <t>automatizado</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>7.819912709430001</v>
+        <v>7.948035384896574</v>
       </c>
     </row>
     <row r="89">
@@ -1583,11 +1583,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>blindado,</t>
+          <t>outubro</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.819912709430001</v>
+        <v>7.937600706548335</v>
       </c>
     </row>
     <row r="90">
@@ -1596,11 +1596,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>couro</t>
+          <t>fonte:</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>7.814852875083359</v>
+        <v>7.925328952655169</v>
       </c>
     </row>
     <row r="91">
@@ -1609,11 +1609,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>fevereiro</t>
+          <t>novembro</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.808124514952175</v>
+        <v>7.924130204733451</v>
       </c>
     </row>
     <row r="92">
@@ -1622,11 +1622,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>alugar</t>
+          <t>ontem</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.80370057003891</v>
+        <v>7.923223943912231</v>
       </c>
     </row>
     <row r="93">
@@ -1635,11 +1635,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>fonte:</t>
+          <t>fls.</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.789859955103104</v>
+        <v>7.922662003685859</v>
       </c>
     </row>
     <row r="94">
@@ -1648,11 +1648,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>stralis</t>
+          <t>telescopico</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.785330017878658</v>
+        <v>7.922662003685859</v>
       </c>
     </row>
     <row r="95">
@@ -1661,11 +1661,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>curitiba,</t>
+          <t>blindado,</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.781482344916504</v>
+        <v>7.922662003685859</v>
       </c>
     </row>
     <row r="96">
@@ -1674,11 +1674,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ontem</t>
+          <t>julho</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.779229488364143</v>
+        <v>7.922479590365996</v>
       </c>
     </row>
     <row r="97">
@@ -1687,11 +1687,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>outubro</t>
+          <t>profissional</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.769332148686884</v>
+        <v>7.922246770585804</v>
       </c>
     </row>
     <row r="98">
@@ -1700,11 +1700,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>julho</t>
+          <t>alugar</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.764020624540482</v>
+        <v>7.921845732859228</v>
       </c>
     </row>
     <row r="99">
@@ -1713,11 +1713,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>novembro</t>
+          <t>stralis</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.760570606285548</v>
+        <v>7.903197057280914</v>
       </c>
     </row>
     <row r="100">
@@ -1726,11 +1726,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>amortecedor</t>
+          <t>curitiba,</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.750729534280669</v>
+        <v>7.883726685603381</v>
       </c>
     </row>
     <row r="101">
@@ -1739,11 +1739,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>profissional</t>
+          <t>automotiva</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>7.748515876679292</v>
+        <v>7.881772129545135</v>
       </c>
     </row>
   </sheetData>
